--- a/projecao_consumo_arroz.xlsx
+++ b/projecao_consumo_arroz.xlsx
@@ -1,36 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dcc-fellowship-ciencia-de-dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C078CB3-B2D2-420B-9230-412DFFC04F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="9">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Ano</t>
   </si>
@@ -59,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,19 +110,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -177,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,27 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,24 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,317 +397,2062 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>2018</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>208494900</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>20.48</v>
       </c>
-      <c r="F2">
-        <f>(D2*E2)/1000</f>
-        <v>4269975.5520000001</v>
-      </c>
-      <c r="G2">
-        <f>D2*E2</f>
-        <v>4269975552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="H2">
+        <v>4269975.552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>780</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>208494900</v>
+      </c>
+      <c r="G3">
+        <v>20.28</v>
+      </c>
+      <c r="H3">
+        <v>4228276.572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>1560</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>208494900</v>
+      </c>
+      <c r="G4">
+        <v>18.8</v>
+      </c>
+      <c r="H4">
+        <v>3919704.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <v>2340</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>208494900</v>
+      </c>
+      <c r="G5">
+        <v>14.86</v>
+      </c>
+      <c r="H5">
+        <v>3098234.214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>240</v>
+      </c>
+      <c r="B6">
+        <v>3120</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>208494900</v>
+      </c>
+      <c r="G6">
+        <v>15.57</v>
+      </c>
+      <c r="H6">
+        <v>3246265.593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>3900</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>208494900</v>
+      </c>
+      <c r="G7">
+        <v>12.4</v>
+      </c>
+      <c r="H7">
+        <v>2585336.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>360</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>2019</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
         <v>210147125</v>
       </c>
-      <c r="E3">
+      <c r="G8">
         <v>20.48</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F14" si="0">(D3*E3)/1000</f>
+      <c r="H8">
         <v>4303813.12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>420</v>
+      </c>
+      <c r="B9">
+        <v>790</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>210147125</v>
+      </c>
+      <c r="G9">
+        <v>20.28</v>
+      </c>
+      <c r="H9">
+        <v>4261783.695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>480</v>
+      </c>
+      <c r="B10">
+        <v>1570</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>210147125</v>
+      </c>
+      <c r="G10">
+        <v>18.8</v>
+      </c>
+      <c r="H10">
+        <v>3950765.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>540</v>
+      </c>
+      <c r="B11">
+        <v>2350</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>210147125</v>
+      </c>
+      <c r="G11">
+        <v>14.86</v>
+      </c>
+      <c r="H11">
+        <v>3122786.2775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>600</v>
+      </c>
+      <c r="B12">
+        <v>3130</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>210147125</v>
+      </c>
+      <c r="G12">
+        <v>15.57</v>
+      </c>
+      <c r="H12">
+        <v>3271990.73625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>660</v>
+      </c>
+      <c r="B13">
+        <v>3910</v>
+      </c>
+      <c r="C13">
+        <v>2019</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>210147125</v>
+      </c>
+      <c r="G13">
+        <v>12.4</v>
+      </c>
+      <c r="H13">
+        <v>2605824.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>720</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
         <v>2020</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
         <v>211755692</v>
       </c>
-      <c r="E4">
+      <c r="G14">
         <v>20.48</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
+      <c r="H14">
         <v>4336756.57216</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>780</v>
+      </c>
+      <c r="B15">
+        <v>800</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>211755692</v>
+      </c>
+      <c r="G15">
+        <v>20.28</v>
+      </c>
+      <c r="H15">
+        <v>4294405.43376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>840</v>
+      </c>
+      <c r="B16">
+        <v>1580</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>211755692</v>
+      </c>
+      <c r="G16">
+        <v>18.8</v>
+      </c>
+      <c r="H16">
+        <v>3981007.0096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>900</v>
+      </c>
+      <c r="B17">
+        <v>2360</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>211755692</v>
+      </c>
+      <c r="G17">
+        <v>14.86</v>
+      </c>
+      <c r="H17">
+        <v>3146689.58312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>960</v>
+      </c>
+      <c r="B18">
+        <v>3140</v>
+      </c>
+      <c r="C18">
+        <v>2020</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>211755692</v>
+      </c>
+      <c r="G18">
+        <v>15.57</v>
+      </c>
+      <c r="H18">
+        <v>3297036.12444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B19">
+        <v>3920</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>211755692</v>
+      </c>
+      <c r="G19">
+        <v>12.4</v>
+      </c>
+      <c r="H19">
+        <v>2625770.5808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
         <v>2021</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
         <v>213317639</v>
       </c>
-      <c r="E5">
+      <c r="G20">
         <v>20.48</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>4368745.2467200002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="H20">
+        <v>4368745.24672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B21">
+        <v>810</v>
+      </c>
+      <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>213317639</v>
+      </c>
+      <c r="G21">
+        <v>20.28</v>
+      </c>
+      <c r="H21">
+        <v>4326081.71892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B22">
+        <v>1590</v>
+      </c>
+      <c r="C22">
+        <v>2021</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>213317639</v>
+      </c>
+      <c r="G22">
+        <v>18.8</v>
+      </c>
+      <c r="H22">
+        <v>4010371.6132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B23">
+        <v>2370</v>
+      </c>
+      <c r="C23">
+        <v>2021</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>213317639</v>
+      </c>
+      <c r="G23">
+        <v>14.86</v>
+      </c>
+      <c r="H23">
+        <v>3169900.11554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>1320</v>
+      </c>
+      <c r="B24">
+        <v>3150</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>213317639</v>
+      </c>
+      <c r="G24">
+        <v>15.57</v>
+      </c>
+      <c r="H24">
+        <v>3321355.63923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>1380</v>
+      </c>
+      <c r="B25">
+        <v>3930</v>
+      </c>
+      <c r="C25">
+        <v>2021</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>213317639</v>
+      </c>
+      <c r="G25">
+        <v>12.4</v>
+      </c>
+      <c r="H25">
+        <v>2645138.7236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>1440</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
         <v>2022</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
         <v>214828540</v>
       </c>
-      <c r="E6">
+      <c r="G26">
         <v>20.48</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4399688.4991999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="H26">
+        <v>4399688.499199999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B27">
+        <v>820</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>214828540</v>
+      </c>
+      <c r="G27">
+        <v>20.28</v>
+      </c>
+      <c r="H27">
+        <v>4356722.7912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>1560</v>
+      </c>
+      <c r="B28">
+        <v>1600</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>214828540</v>
+      </c>
+      <c r="G28">
+        <v>18.8</v>
+      </c>
+      <c r="H28">
+        <v>4038776.552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>1620</v>
+      </c>
+      <c r="B29">
+        <v>2380</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>214828540</v>
+      </c>
+      <c r="G29">
+        <v>14.86</v>
+      </c>
+      <c r="H29">
+        <v>3192352.1044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>1680</v>
+      </c>
+      <c r="B30">
+        <v>3160</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>214828540</v>
+      </c>
+      <c r="G30">
+        <v>15.57</v>
+      </c>
+      <c r="H30">
+        <v>3344880.3678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>1740</v>
+      </c>
+      <c r="B31">
+        <v>3940</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>214828540</v>
+      </c>
+      <c r="G31">
+        <v>12.4</v>
+      </c>
+      <c r="H31">
+        <v>2663873.896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
         <v>2023</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
         <v>216284269</v>
       </c>
-      <c r="E7">
+      <c r="G32">
         <v>20.48</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>4429501.8291199999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="H32">
+        <v>4429501.82912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>1860</v>
+      </c>
+      <c r="B33">
+        <v>830</v>
+      </c>
+      <c r="C33">
+        <v>2023</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>216284269</v>
+      </c>
+      <c r="G33">
+        <v>20.28</v>
+      </c>
+      <c r="H33">
+        <v>4386244.97532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>1920</v>
+      </c>
+      <c r="B34">
+        <v>1610</v>
+      </c>
+      <c r="C34">
+        <v>2023</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>216284269</v>
+      </c>
+      <c r="G34">
+        <v>18.8</v>
+      </c>
+      <c r="H34">
+        <v>4066144.2572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B35">
+        <v>2390</v>
+      </c>
+      <c r="C35">
+        <v>2023</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>216284269</v>
+      </c>
+      <c r="G35">
+        <v>14.86</v>
+      </c>
+      <c r="H35">
+        <v>3213984.23734</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B36">
+        <v>3170</v>
+      </c>
+      <c r="C36">
+        <v>2023</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>216284269</v>
+      </c>
+      <c r="G36">
+        <v>15.57</v>
+      </c>
+      <c r="H36">
+        <v>3367546.06833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B37">
+        <v>3950</v>
+      </c>
+      <c r="C37">
+        <v>2023</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>216284269</v>
+      </c>
+      <c r="G37">
+        <v>12.4</v>
+      </c>
+      <c r="H37">
+        <v>2681924.9356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>2160</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38">
         <v>2024</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
         <v>217684462</v>
       </c>
-      <c r="E8">
+      <c r="G38">
         <v>20.48</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>4458177.7817600006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="H38">
+        <v>4458177.781760001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>2220</v>
+      </c>
+      <c r="B39">
+        <v>840</v>
+      </c>
+      <c r="C39">
+        <v>2024</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>217684462</v>
+      </c>
+      <c r="G39">
+        <v>20.28</v>
+      </c>
+      <c r="H39">
+        <v>4414640.88936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>2280</v>
+      </c>
+      <c r="B40">
+        <v>1620</v>
+      </c>
+      <c r="C40">
+        <v>2024</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>217684462</v>
+      </c>
+      <c r="G40">
+        <v>18.8</v>
+      </c>
+      <c r="H40">
+        <v>4092467.8856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>2340</v>
+      </c>
+      <c r="B41">
+        <v>2400</v>
+      </c>
+      <c r="C41">
+        <v>2024</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>217684462</v>
+      </c>
+      <c r="G41">
+        <v>14.86</v>
+      </c>
+      <c r="H41">
+        <v>3234791.10532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>2400</v>
+      </c>
+      <c r="B42">
+        <v>3180</v>
+      </c>
+      <c r="C42">
+        <v>2024</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>217684462</v>
+      </c>
+      <c r="G42">
+        <v>15.57</v>
+      </c>
+      <c r="H42">
+        <v>3389347.07334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>2460</v>
+      </c>
+      <c r="B43">
+        <v>3960</v>
+      </c>
+      <c r="C43">
+        <v>2024</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>217684462</v>
+      </c>
+      <c r="G43">
+        <v>12.4</v>
+      </c>
+      <c r="H43">
+        <v>2699287.3288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>2520</v>
+      </c>
+      <c r="B44">
+        <v>70</v>
+      </c>
+      <c r="C44">
         <v>2025</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
         <v>219029093</v>
       </c>
-      <c r="E9">
+      <c r="G44">
         <v>20.48</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>4485715.8246400002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="H44">
+        <v>4485715.82464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>2580</v>
+      </c>
+      <c r="B45">
+        <v>850</v>
+      </c>
+      <c r="C45">
+        <v>2025</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>219029093</v>
+      </c>
+      <c r="G45">
+        <v>20.28</v>
+      </c>
+      <c r="H45">
+        <v>4441910.00604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>2640</v>
+      </c>
+      <c r="B46">
+        <v>1630</v>
+      </c>
+      <c r="C46">
+        <v>2025</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>219029093</v>
+      </c>
+      <c r="G46">
+        <v>18.8</v>
+      </c>
+      <c r="H46">
+        <v>4117746.9484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B47">
+        <v>2410</v>
+      </c>
+      <c r="C47">
+        <v>2025</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>219029093</v>
+      </c>
+      <c r="G47">
+        <v>14.86</v>
+      </c>
+      <c r="H47">
+        <v>3254772.32198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>2760</v>
+      </c>
+      <c r="B48">
+        <v>3190</v>
+      </c>
+      <c r="C48">
+        <v>2025</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>219029093</v>
+      </c>
+      <c r="G48">
+        <v>15.57</v>
+      </c>
+      <c r="H48">
+        <v>3410282.97801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>2820</v>
+      </c>
+      <c r="B49">
+        <v>3970</v>
+      </c>
+      <c r="C49">
+        <v>2025</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>219029093</v>
+      </c>
+      <c r="G49">
+        <v>12.4</v>
+      </c>
+      <c r="H49">
+        <v>2715960.7532</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>2880</v>
+      </c>
+      <c r="B50">
+        <v>80</v>
+      </c>
+      <c r="C50">
         <v>2026</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
         <v>220316530</v>
       </c>
-      <c r="E10">
+      <c r="G50">
         <v>20.48</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>4512082.5343999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="H50">
+        <v>4512082.534399999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>2940</v>
+      </c>
+      <c r="B51">
+        <v>860</v>
+      </c>
+      <c r="C51">
+        <v>2026</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>220316530</v>
+      </c>
+      <c r="G51">
+        <v>20.28</v>
+      </c>
+      <c r="H51">
+        <v>4468019.2284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B52">
+        <v>1640</v>
+      </c>
+      <c r="C52">
+        <v>2026</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>220316530</v>
+      </c>
+      <c r="G52">
+        <v>18.8</v>
+      </c>
+      <c r="H52">
+        <v>4141950.764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>3060</v>
+      </c>
+      <c r="B53">
+        <v>2420</v>
+      </c>
+      <c r="C53">
+        <v>2026</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>220316530</v>
+      </c>
+      <c r="G53">
+        <v>14.86</v>
+      </c>
+      <c r="H53">
+        <v>3273903.6358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>3120</v>
+      </c>
+      <c r="B54">
+        <v>3200</v>
+      </c>
+      <c r="C54">
+        <v>2026</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>220316530</v>
+      </c>
+      <c r="G54">
+        <v>15.57</v>
+      </c>
+      <c r="H54">
+        <v>3430328.3721</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>3180</v>
+      </c>
+      <c r="B55">
+        <v>3980</v>
+      </c>
+      <c r="C55">
+        <v>2026</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>220316530</v>
+      </c>
+      <c r="G55">
+        <v>12.4</v>
+      </c>
+      <c r="H55">
+        <v>2731924.972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>3240</v>
+      </c>
+      <c r="B56">
+        <v>90</v>
+      </c>
+      <c r="C56">
         <v>2027</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
         <v>221545234</v>
       </c>
-      <c r="E11">
+      <c r="G56">
         <v>20.48</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>4537246.3923199996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="H56">
+        <v>4537246.39232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>3300</v>
+      </c>
+      <c r="B57">
+        <v>870</v>
+      </c>
+      <c r="C57">
+        <v>2027</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>221545234</v>
+      </c>
+      <c r="G57">
+        <v>20.28</v>
+      </c>
+      <c r="H57">
+        <v>4492937.345520001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>3360</v>
+      </c>
+      <c r="B58">
+        <v>1650</v>
+      </c>
+      <c r="C58">
+        <v>2027</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>221545234</v>
+      </c>
+      <c r="G58">
+        <v>18.8</v>
+      </c>
+      <c r="H58">
+        <v>4165050.3992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>3420</v>
+      </c>
+      <c r="B59">
+        <v>2430</v>
+      </c>
+      <c r="C59">
+        <v>2027</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>221545234</v>
+      </c>
+      <c r="G59">
+        <v>14.86</v>
+      </c>
+      <c r="H59">
+        <v>3292162.17724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>3480</v>
+      </c>
+      <c r="B60">
+        <v>3210</v>
+      </c>
+      <c r="C60">
+        <v>2027</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>221545234</v>
+      </c>
+      <c r="G60">
+        <v>15.57</v>
+      </c>
+      <c r="H60">
+        <v>3449459.29338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>3540</v>
+      </c>
+      <c r="B61">
+        <v>3990</v>
+      </c>
+      <c r="C61">
+        <v>2027</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>221545234</v>
+      </c>
+      <c r="G61">
+        <v>12.4</v>
+      </c>
+      <c r="H61">
+        <v>2747160.9016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>3600</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62">
         <v>2028</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
         <v>222713669</v>
       </c>
-      <c r="E12">
+      <c r="G62">
         <v>20.48</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>4561175.9411199996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="H62">
+        <v>4561175.94112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>3660</v>
+      </c>
+      <c r="B63">
+        <v>880</v>
+      </c>
+      <c r="C63">
+        <v>2028</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>222713669</v>
+      </c>
+      <c r="G63">
+        <v>20.28</v>
+      </c>
+      <c r="H63">
+        <v>4516633.207320001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>3720</v>
+      </c>
+      <c r="B64">
+        <v>1660</v>
+      </c>
+      <c r="C64">
+        <v>2028</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>222713669</v>
+      </c>
+      <c r="G64">
+        <v>18.8</v>
+      </c>
+      <c r="H64">
+        <v>4187016.9772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>3780</v>
+      </c>
+      <c r="B65">
+        <v>2440</v>
+      </c>
+      <c r="C65">
+        <v>2028</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>222713669</v>
+      </c>
+      <c r="G65">
+        <v>14.86</v>
+      </c>
+      <c r="H65">
+        <v>3309525.12134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>3840</v>
+      </c>
+      <c r="B66">
+        <v>3220</v>
+      </c>
+      <c r="C66">
+        <v>2028</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>222713669</v>
+      </c>
+      <c r="G66">
+        <v>15.57</v>
+      </c>
+      <c r="H66">
+        <v>3467651.82633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>3900</v>
+      </c>
+      <c r="B67">
+        <v>4000</v>
+      </c>
+      <c r="C67">
+        <v>2028</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>222713669</v>
+      </c>
+      <c r="G67">
+        <v>12.4</v>
+      </c>
+      <c r="H67">
+        <v>2761649.4956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>3960</v>
+      </c>
+      <c r="B68">
+        <v>110</v>
+      </c>
+      <c r="C68">
         <v>2029</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
         <v>223821305</v>
       </c>
-      <c r="E13">
+      <c r="G68">
         <v>20.48</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>4583860.3263999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="H68">
+        <v>4583860.3264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>4020</v>
+      </c>
+      <c r="B69">
+        <v>890</v>
+      </c>
+      <c r="C69">
+        <v>2029</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>223821305</v>
+      </c>
+      <c r="G69">
+        <v>20.28</v>
+      </c>
+      <c r="H69">
+        <v>4539096.065400001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>4080</v>
+      </c>
+      <c r="B70">
+        <v>1670</v>
+      </c>
+      <c r="C70">
+        <v>2029</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>223821305</v>
+      </c>
+      <c r="G70">
+        <v>18.8</v>
+      </c>
+      <c r="H70">
+        <v>4207840.534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>4140</v>
+      </c>
+      <c r="B71">
+        <v>2450</v>
+      </c>
+      <c r="C71">
+        <v>2029</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>223821305</v>
+      </c>
+      <c r="G71">
+        <v>14.86</v>
+      </c>
+      <c r="H71">
+        <v>3325984.5923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>4200</v>
+      </c>
+      <c r="B72">
+        <v>3230</v>
+      </c>
+      <c r="C72">
+        <v>2029</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>223821305</v>
+      </c>
+      <c r="G72">
+        <v>15.57</v>
+      </c>
+      <c r="H72">
+        <v>3484897.71885</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>4260</v>
+      </c>
+      <c r="B73">
+        <v>4010</v>
+      </c>
+      <c r="C73">
+        <v>2029</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>223821305</v>
+      </c>
+      <c r="G73">
+        <v>12.4</v>
+      </c>
+      <c r="H73">
+        <v>2775384.182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>4320</v>
+      </c>
+      <c r="B74">
+        <v>120</v>
+      </c>
+      <c r="C74">
         <v>2030</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74">
         <v>224868462</v>
       </c>
-      <c r="E14">
+      <c r="G74">
         <v>20.48</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="H74">
         <v>4605306.10176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>4380</v>
+      </c>
+      <c r="B75">
+        <v>900</v>
+      </c>
+      <c r="C75">
+        <v>2030</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>224868462</v>
+      </c>
+      <c r="G75">
+        <v>20.28</v>
+      </c>
+      <c r="H75">
+        <v>4560332.409360001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>4440</v>
+      </c>
+      <c r="B76">
+        <v>1680</v>
+      </c>
+      <c r="C76">
+        <v>2030</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>224868462</v>
+      </c>
+      <c r="G76">
+        <v>18.8</v>
+      </c>
+      <c r="H76">
+        <v>4227527.085600001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>4500</v>
+      </c>
+      <c r="B77">
+        <v>2460</v>
+      </c>
+      <c r="C77">
+        <v>2030</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>224868462</v>
+      </c>
+      <c r="G77">
+        <v>14.86</v>
+      </c>
+      <c r="H77">
+        <v>3341545.34532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>4560</v>
+      </c>
+      <c r="B78">
+        <v>3240</v>
+      </c>
+      <c r="C78">
+        <v>2030</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>224868462</v>
+      </c>
+      <c r="G78">
+        <v>15.57</v>
+      </c>
+      <c r="H78">
+        <v>3501201.95334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>4620</v>
+      </c>
+      <c r="B79">
+        <v>4020</v>
+      </c>
+      <c r="C79">
+        <v>2030</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>224868462</v>
+      </c>
+      <c r="G79">
+        <v>12.4</v>
+      </c>
+      <c r="H79">
+        <v>2788368.9288</v>
       </c>
     </row>
   </sheetData>
